--- a/biology/Botanique/Redwood_(bois)/Redwood_(bois).xlsx
+++ b/biology/Botanique/Redwood_(bois)/Redwood_(bois).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme anglais de sylviculture redwood (que l'on peut traduire littéralement par bois rouge) fait généralement référence au séquoia – Sequoia wellingtonia ou giganteum (giant redwood, Sierra redwood, Sierran redwood), Sequoia sempervirens (coast redwood, coastal redwood, California redwood) – conifère géant de Californie, remarquable par sa taille et par sa longévité, appartenant à la famille des Taxodiaceae; il peut atteindre une hauteur de 110 m et vivre près de 2000 ans; il est donc appelé « redwood » en anglais mais aussi « sequoia »[1]. Son nom en anglais lui vient de sa couleur d'un brun rougeâtre, dont les tons de rouge sont légèrement plus accentués que le sang-de-bœuf[2].
-Redwood est aussi en anglais un terme commercial établi pour le bois de deux essences de conifères, à savoir Pinus sylvestris (red deal, Baltic redwood, lorsqu’il est importé en Grande-Bretagne depuis l’Europe du Nord) et Sequoia sempervirens (Californian redwoods). Le terme se traduit en québécois par « sapin rouge »[3]. Pour la dénomination commerciale de Pinus sylvestris on trouvera souvent la dénomination commerciale anglaise, « european redwood » suivie de la provenance du bois. En France, les bois importés des forêts du Nord (soit de la forêt boréale et d'Europe du Nord), aussi bien sapin blanc que sapin rouge sont encore appelés bois du Nord[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme anglais de sylviculture redwood (que l'on peut traduire littéralement par bois rouge) fait généralement référence au séquoia – Sequoia wellingtonia ou giganteum (giant redwood, Sierra redwood, Sierran redwood), Sequoia sempervirens (coast redwood, coastal redwood, California redwood) – conifère géant de Californie, remarquable par sa taille et par sa longévité, appartenant à la famille des Taxodiaceae; il peut atteindre une hauteur de 110 m et vivre près de 2000 ans; il est donc appelé « redwood » en anglais mais aussi « sequoia ». Son nom en anglais lui vient de sa couleur d'un brun rougeâtre, dont les tons de rouge sont légèrement plus accentués que le sang-de-bœuf.
+Redwood est aussi en anglais un terme commercial établi pour le bois de deux essences de conifères, à savoir Pinus sylvestris (red deal, Baltic redwood, lorsqu’il est importé en Grande-Bretagne depuis l’Europe du Nord) et Sequoia sempervirens (Californian redwoods). Le terme se traduit en québécois par « sapin rouge ». Pour la dénomination commerciale de Pinus sylvestris on trouvera souvent la dénomination commerciale anglaise, « european redwood » suivie de la provenance du bois. En France, les bois importés des forêts du Nord (soit de la forêt boréale et d'Europe du Nord), aussi bien sapin blanc que sapin rouge sont encore appelés bois du Nord.
 Aux États-Unis, de nombreux toponyme tirent leur nom du séquoia tels le Parc national de Redwood, ou le Parc d'État de Humboldt Redwoods, etc.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t xml:space="preserve">Plantes prenant en anglais le nom de redwood </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les plantes qui suivent prennent à un moment ou à un autre le nom de « redwood » en anglais
 Feuillu
